--- a/data/trans_dic/P16A17-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A17-Edad-trans_dic.xlsx
@@ -662,7 +662,7 @@
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="n">
-        <v>0.001536448996864659</v>
+        <v>0.001538406688135345</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
@@ -678,10 +678,10 @@
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.01419334308174818</v>
+        <v>0.01463198037383344</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01021314273134414</v>
+        <v>0.009177381204433141</v>
       </c>
     </row>
     <row r="10">
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004623725855079551</v>
+        <v>0.004324018821816048</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001271042164125221</v>
+        <v>0.001278860723571832</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
@@ -736,16 +736,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02145667952058228</v>
+        <v>0.02040714575976885</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01093992381815374</v>
+        <v>0.0109628756873055</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.009650344008580808</v>
+        <v>0.008057357899145969</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.008951031218866598</v>
+        <v>0.008790755460187627</v>
       </c>
     </row>
     <row r="13">
@@ -780,16 +780,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007193413125313923</v>
+        <v>0.007278115136304358</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0156776765631453</v>
+        <v>0.01580379992697796</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002884279364209603</v>
+        <v>0.003000735889120026</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.006602568572513711</v>
+        <v>0.007148208112885796</v>
       </c>
     </row>
     <row r="15">
@@ -800,16 +800,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02759772748186405</v>
+        <v>0.02761266025085272</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04594903540111479</v>
+        <v>0.04508509290806149</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01764531405120164</v>
+        <v>0.01698893531553951</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02045975627286301</v>
+        <v>0.02039497787176521</v>
       </c>
     </row>
     <row r="16">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.009407918465160715</v>
+        <v>0.007658587117631677</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0023279469963386</v>
+        <v>0.002341685434477373</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.00216515589904952</v>
+        <v>0.002250771849302469</v>
       </c>
     </row>
     <row r="18">
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03835510011751303</v>
+        <v>0.03694431623515928</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01235955581411056</v>
+        <v>0.01085263817294521</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0209065916792882</v>
+        <v>0.02303338067479917</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01238631101717778</v>
+        <v>0.01258608017608863</v>
       </c>
     </row>
     <row r="19">
@@ -927,13 +927,13 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.01499005274060808</v>
+        <v>0.01844081162203625</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01899325258487826</v>
+        <v>0.01898937647975364</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.009127791370960663</v>
+        <v>0.008733536861051917</v>
       </c>
     </row>
     <row r="22">
@@ -986,14 +986,14 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02125922586282805</v>
+        <v>0.02110770780179883</v>
       </c>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="n">
-        <v>0.02627895971965961</v>
+        <v>0.02311471312713287</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01160074831810085</v>
+        <v>0.01391323210777286</v>
       </c>
     </row>
     <row r="25">
@@ -1017,7 +1017,7 @@
         <v>0.005103081089591228</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.004891766763541077</v>
+        <v>0.004891766763541078</v>
       </c>
     </row>
     <row r="26">
@@ -1028,16 +1028,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.004759827443151944</v>
+        <v>0.004661606530646006</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.003823710410201663</v>
+        <v>0.003830045090362292</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.003156631739726414</v>
+        <v>0.003234752368892207</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.003196981177204124</v>
+        <v>0.003320410546481231</v>
       </c>
     </row>
     <row r="27">
@@ -1048,16 +1048,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01039927954728383</v>
+        <v>0.01023752702259107</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.009577382402697163</v>
+        <v>0.009826329673771079</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.008092683746887307</v>
+        <v>0.008093564605366345</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.006954841523604654</v>
+        <v>0.007163629539770858</v>
       </c>
     </row>
     <row r="28">
@@ -1279,7 +1279,7 @@
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="n">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -1295,10 +1295,10 @@
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>7999</v>
+        <v>8246</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>5102</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="12">
@@ -1353,10 +1353,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3189</v>
+        <v>2982</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
@@ -1373,16 +1373,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14800</v>
+        <v>14076</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7723</v>
+        <v>7739</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6383</v>
+        <v>5329</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5562</v>
+        <v>5462</v>
       </c>
     </row>
     <row r="16">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3709</v>
+        <v>3753</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9611</v>
+        <v>9688</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1872</v>
+        <v>1948</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4852</v>
+        <v>5253</v>
       </c>
     </row>
     <row r="19">
@@ -1457,16 +1457,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>14231</v>
+        <v>14238</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>28167</v>
+        <v>27637</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>11453</v>
+        <v>11027</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>15036</v>
+        <v>14988</v>
       </c>
     </row>
     <row r="20">
@@ -1521,16 +1521,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3791</v>
+        <v>3086</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1157</v>
+        <v>1163</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1315</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="23">
@@ -1541,16 +1541,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15457</v>
+        <v>14888</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>5522</v>
+        <v>4849</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>10387</v>
+        <v>11444</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>7524</v>
+        <v>7645</v>
       </c>
     </row>
     <row r="24">
@@ -1624,13 +1624,13 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>5247</v>
+        <v>6455</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7175</v>
+        <v>7173</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>4005</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="28">
@@ -1703,14 +1703,14 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>7099</v>
+        <v>7048</v>
       </c>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="n">
-        <v>10516</v>
+        <v>9250</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>5376</v>
+        <v>6448</v>
       </c>
     </row>
     <row r="32">
@@ -1765,16 +1765,16 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>16076</v>
+        <v>15744</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>13520</v>
+        <v>13543</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>11189</v>
+        <v>11466</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>11918</v>
+        <v>12378</v>
       </c>
     </row>
     <row r="35">
@@ -1785,16 +1785,16 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>35122</v>
+        <v>34576</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>33865</v>
+        <v>34745</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>28685</v>
+        <v>28688</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>25928</v>
+        <v>26706</v>
       </c>
     </row>
     <row r="36">
